--- a/data/trans_bre/P2404-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P2404-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; -1,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; -0,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,65%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,88; -0,36</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; -0,25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; -0,61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 13,88</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,13; -12,17</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,16%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; -0,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; -0,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; -0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,28; -23,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -60,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,28; -47,49</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,91%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 0,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; -1,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; -0,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,31; 194,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,39; -34,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,35; -13,13</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,46%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; -0,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; -1,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; -1,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,91; -1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,39; -47,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,69; -36,74</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,93%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; -0,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; -1,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; -1,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,44; -30,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,96; -65,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,95; -56,14</t>
         </is>
       </c>
     </row>
